--- a/biology/Zoologie/Élevage_de_tortues/Élevage_de_tortues.xlsx
+++ b/biology/Zoologie/Élevage_de_tortues/Élevage_de_tortues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89levage_de_tortues</t>
+          <t>Élevage_de_tortues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’élevage de tortues est l'ensemble des opérations humaines permettant la multiplication des tortues. Les tortues d'élevage sont soit vendues pour la consommation, la médecine traditionnelle, la fabrication de cosmétique ou comme animaux domestiques, soit relâchées dans la nature à des fins de conservation des espèces.
  Portail de l’élevage   Portail de l’herpétologie                    </t>
